--- a/Paper_resultados/Parametric_model/LoS/Output/Model_selection/Age/summary_g1.xlsx
+++ b/Paper_resultados/Parametric_model/LoS/Output/Model_selection/Age/summary_g1.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.723482097148782</v>
+        <v>3.742857188960132</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>9.931348773057813</v>
+        <v>9.987888973421265</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>23.80999965218693</v>
+        <v>23.89319649509326</v>
       </c>
       <c r="E4">
         <v>25.25</v>
